--- a/2. Documentatie/Baza de date.xlsx
+++ b/2. Documentatie/Baza de date.xlsx
@@ -4,81 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Recensamant - POO " sheetId="4" r:id="rId1"/>
-    <sheet name="BD" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId3"/>
+    <sheet name="Schema BD" sheetId="6" r:id="rId1"/>
+    <sheet name="Schema POO" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="C2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fac operator+ si operator- in caz ca se mareste/ micsoareaza familia cu 1 membru/mai multi membri</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fac si opperator de index si operator de cast de la int la float zicem sa si-a marit o camera cu juma de metru.
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="94">
-  <si>
-    <t>Persoana</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="118">
   <si>
     <t>Adresa</t>
   </si>
@@ -128,9 +65,6 @@
     <t>Prenume</t>
   </si>
   <si>
-    <t>persoanaFaraAdapost</t>
-  </si>
-  <si>
     <t>dataNasterii</t>
   </si>
   <si>
@@ -167,30 +101,167 @@
     <t>orientateSexuala</t>
   </si>
   <si>
-    <t>Relatie de has a</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>String</t>
   </si>
   <si>
-    <t>char</t>
-  </si>
-  <si>
-    <t>CodGospodarie</t>
-  </si>
-  <si>
     <t>Gospodarie (Familie)</t>
   </si>
   <si>
+    <t>List&lt;Gospodarie&gt; gospodariiLocuinta</t>
+  </si>
+  <si>
+    <t>suprafataLocuinta</t>
+  </si>
+  <si>
+    <t>suprafaeteCamere</t>
+  </si>
+  <si>
+    <t>mediu: rural, urban</t>
+  </si>
+  <si>
+    <t>Migrant</t>
+  </si>
+  <si>
+    <t>anMigrare</t>
+  </si>
+  <si>
+    <t>cetatenie</t>
+  </si>
+  <si>
+    <t>TaraMigrare</t>
+  </si>
+  <si>
+    <t>Interfata</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IVarsta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mostenire </t>
+  </si>
+  <si>
+    <t>Adresa (has a)</t>
+  </si>
+  <si>
+    <t>nrCamereDeLocuit</t>
+  </si>
+  <si>
+    <t>Clasa Compusa (has a)</t>
+  </si>
+  <si>
+    <t>Clasa Derivata (Copil - is a)</t>
+  </si>
+  <si>
+    <t>CLASA DE BAZA</t>
+  </si>
+  <si>
+    <t>Locuinta(has a) -- Persoana fara locuinta</t>
+  </si>
+  <si>
+    <t>calculareVarstaMigrare() -implementat</t>
+  </si>
+  <si>
+    <t>CalculareVarstaActuala()</t>
+  </si>
+  <si>
+    <t>CalculareVarstaMigrare()</t>
+  </si>
+  <si>
+    <t>RECENZOR</t>
+  </si>
+  <si>
+    <t>PERSOANA</t>
+  </si>
+  <si>
+    <t>zonaRecenzie</t>
+  </si>
+  <si>
+    <t>codMapa</t>
+  </si>
+  <si>
+    <t>CodMapa</t>
+  </si>
+  <si>
+    <t>IdentitateCulturala (has a)</t>
+  </si>
+  <si>
+    <t>IdentitateCulturala</t>
+  </si>
+  <si>
+    <t>PersoanaRecenzata</t>
+  </si>
+  <si>
+    <t>Tara</t>
+  </si>
+  <si>
+    <t>has a ( are o)</t>
+  </si>
+  <si>
+    <t>is a (este un)</t>
+  </si>
+  <si>
+    <t>interfata</t>
+  </si>
+  <si>
+    <t>nrMapeTotale (253)</t>
+  </si>
+  <si>
+    <t>calculareVarstaActuala()</t>
+  </si>
+  <si>
+    <t>calculareVarstaActuala() - implementata</t>
+  </si>
+  <si>
+    <t>Clasa anstracta</t>
+  </si>
+  <si>
+    <t>cnp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List&lt;String&gt; </t>
+  </si>
+  <si>
+    <t>numeComplet</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>esteDeSexFeminin</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>readonly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> String</t>
+    </r>
+  </si>
+  <si>
+    <t>Iclonable</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"> </t>
     </r>
@@ -203,193 +274,442 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Intr-o locuinta se pot afla mai multe gospodarii, mai bine zis mai multe familii.</t>
-    </r>
-  </si>
-  <si>
-    <t>List&lt;Gospodarie&gt; gospodariiLocuinta</t>
-  </si>
-  <si>
-    <t>suprafataLocuinta</t>
-  </si>
-  <si>
-    <t>suprafaeteCamere</t>
-  </si>
-  <si>
-    <t>int (contor)</t>
-  </si>
-  <si>
-    <t>operator+, operator-</t>
-  </si>
-  <si>
-    <t>mediu: rural, urban</t>
-  </si>
-  <si>
-    <t>Migrant</t>
-  </si>
-  <si>
-    <t>anMigrare</t>
-  </si>
-  <si>
-    <t>cetatenie</t>
-  </si>
-  <si>
-    <t>TaraMigrare</t>
-  </si>
-  <si>
-    <t>( si emigranti si imigranti)</t>
-  </si>
-  <si>
-    <t>Interfata</t>
-  </si>
-  <si>
-    <t>TextBox</t>
-  </si>
-  <si>
-    <t>list</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IVarsta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mostenire </t>
-  </si>
-  <si>
-    <t>String (Prorietar, Chirias)</t>
-  </si>
-  <si>
-    <t>Combo Box</t>
-  </si>
-  <si>
-    <t>Identitate (has a)</t>
-  </si>
-  <si>
-    <t>Adresa (has a)</t>
-  </si>
-  <si>
-    <t>Iclonable, Icomparable (dupa anMigrare)</t>
-  </si>
-  <si>
-    <t>nrCamereDeLocuit</t>
-  </si>
-  <si>
-    <t>Clasa Compusa (has a)</t>
-  </si>
-  <si>
-    <t>Clasa Derivata (Copil - is a)</t>
-  </si>
-  <si>
-    <t>Radio Button</t>
-  </si>
-  <si>
-    <r>
-      <t>int[contor]</t>
+      <t>abstract</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (float)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">operator index, operator+, operator cast,  </t>
-  </si>
-  <si>
-    <t>IClonable, Icomparable (dupa suprafata totala, an Construire, nrCamereDeLocuit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iclonable, Icomparable (dupa nrPersoane), </t>
-  </si>
-  <si>
-    <t>Clasa  Parinte</t>
-  </si>
-  <si>
-    <t>CLASA DE BAZA</t>
-  </si>
-  <si>
-    <t>CodLocuinta</t>
-  </si>
-  <si>
-    <t>Primary Key</t>
-  </si>
-  <si>
-    <t>Foreign Key</t>
-  </si>
-  <si>
-    <t>*daca e cetatean roman tara in care a plecat, daca  e cetatean straint tara din care a locuint inainte de a venit in Romania</t>
-  </si>
-  <si>
-    <t>Locuinta(has a) -- Persoana fara locuinta</t>
-  </si>
-  <si>
-    <t>calculareVarstaMigrare() -implementat</t>
-  </si>
-  <si>
-    <t>CalculareVarstaActuala()</t>
-  </si>
-  <si>
-    <t>CalculareVarstaMigrare()</t>
-  </si>
-  <si>
-    <t>RECENZOR</t>
-  </si>
-  <si>
-    <t>PERSOANA</t>
-  </si>
-  <si>
-    <t>zonaRecenzie</t>
-  </si>
-  <si>
-    <t>codMapa</t>
-  </si>
-  <si>
-    <t>CodMapa</t>
-  </si>
-  <si>
-    <t>IdentitateCulturala (has a)</t>
-  </si>
-  <si>
-    <t>IdentitateCulturala</t>
-  </si>
-  <si>
-    <t>PersoanaRecenzata</t>
-  </si>
-  <si>
-    <t>Tara</t>
-  </si>
-  <si>
-    <t>has a ( are o)</t>
-  </si>
-  <si>
-    <t>is a (este un)</t>
-  </si>
-  <si>
-    <t>interfata</t>
-  </si>
-  <si>
-    <t>nrMapeTotale (253)</t>
-  </si>
-  <si>
-    <t>calculareVarstaActuala()</t>
-  </si>
-  <si>
-    <t>calculareVarstaActuala() - implementata</t>
-  </si>
-  <si>
-    <t>Clasa anstracta</t>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> calculareVastaActuala()</t>
+    </r>
+  </si>
+  <si>
+    <t>Constructor fara parametri</t>
+  </si>
+  <si>
+    <t>Constructor cu parametri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proprietati </t>
+  </si>
+  <si>
+    <t>To String</t>
+  </si>
+  <si>
+    <t>Operator index List</t>
+  </si>
+  <si>
+    <t>Clasa parinte</t>
+  </si>
+  <si>
+    <t>IClonable</t>
+  </si>
+  <si>
+    <t>locuinta</t>
+  </si>
+  <si>
+    <t>identitateCulturala</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>calculareVastaActuala()</t>
+    </r>
+  </si>
+  <si>
+    <t>nrMape</t>
+  </si>
+  <si>
+    <t>zonaRecenzata</t>
+  </si>
+  <si>
+    <t>calculareVastaActuala()</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Recenzor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:Persoana</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Recenzat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:Persoana</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public abstract</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Persoana</t>
+    </r>
+  </si>
+  <si>
+    <t>Clasa mostenita (is a)</t>
+  </si>
+  <si>
+    <t>Clasa compusa (has a)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IdentitateCulturala</t>
+    </r>
+  </si>
+  <si>
+    <t>etnie</t>
+  </si>
+  <si>
+    <t>religie</t>
+  </si>
+  <si>
+    <t>estHetero</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Migrant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:Recenzat</t>
+    </r>
+  </si>
+  <si>
+    <t>taraMigrare</t>
+  </si>
+  <si>
+    <t>Constructor cu paametri pentru clasa Migrant</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Persoana</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IVastaMigrare</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> calculeazaVarstaMigrare()</t>
+    </r>
+  </si>
+  <si>
+    <t>Clasa compusa</t>
+  </si>
+  <si>
+    <t>tara</t>
+  </si>
+  <si>
+    <t>judet</t>
+  </si>
+  <si>
+    <t>localitate</t>
+  </si>
+  <si>
+    <t>strada</t>
+  </si>
+  <si>
+    <t>nr</t>
+  </si>
+  <si>
+    <t>bloc</t>
+  </si>
+  <si>
+    <t>scara</t>
+  </si>
+  <si>
+    <t>etaj</t>
+  </si>
+  <si>
+    <t>apartament</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List&lt;Persoana&gt; </t>
+  </si>
+  <si>
+    <t>persoaneFamilie</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Familie</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Adresa</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,28 +800,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial Rounded MT Bold"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,29 +857,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
       </patternFill>
     </fill>
     <fill>
@@ -565,8 +870,26 @@
         <fgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -612,56 +935,267 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="thick">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thick">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thick">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thick">
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thick">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thick">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="9" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -676,38 +1210,109 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="11"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="12">
-    <cellStyle name="40% - Accent3" xfId="6" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="7" builtinId="40"/>
-    <cellStyle name="Accent1" xfId="11" builtinId="29"/>
+  <cellStyles count="11">
+    <cellStyle name="40% - Accent4" xfId="8" builtinId="43"/>
+    <cellStyle name="40% - Accent5" xfId="9" builtinId="47"/>
+    <cellStyle name="40% - Accent6" xfId="10" builtinId="51"/>
+    <cellStyle name="Accent1" xfId="7" builtinId="29"/>
     <cellStyle name="Accent2" xfId="4" builtinId="33"/>
-    <cellStyle name="Accent3" xfId="5" builtinId="37"/>
-    <cellStyle name="Accent4" xfId="8" builtinId="41"/>
-    <cellStyle name="Accent5" xfId="9" builtinId="45"/>
-    <cellStyle name="Accent6" xfId="10" builtinId="49"/>
+    <cellStyle name="Accent4" xfId="5" builtinId="41"/>
+    <cellStyle name="Accent6" xfId="6" builtinId="49"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
@@ -724,57 +1329,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>723901</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>4</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>171452</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Elbow Connector 17"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="4524377" y="2790828"/>
-          <a:ext cx="3333748" cy="1943099"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1588,387 +2142,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M48"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.5546875" customWidth="1"/>
-    <col min="2" max="2" width="5.77734375" customWidth="1"/>
-    <col min="3" max="3" width="36.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="35.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="31.109375" customWidth="1"/>
-    <col min="12" max="12" width="28.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F3" s="3"/>
-      <c r="I3" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L28" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F48" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L41"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="37.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
-    <col min="8" max="8" width="34.44140625" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" customWidth="1"/>
-    <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="12" width="20.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="14"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H12" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H13" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H14" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H15" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H16" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H17" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="E30" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="E31" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E32" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E33" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E34" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E35" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E36" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E37" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E38" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E39" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E40" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E41" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1985,264 +2163,264 @@
   <sheetData>
     <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="9" t="s">
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G12" s="15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="2:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="5" t="s">
+      <c r="Q12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" s="24" t="s">
+    </row>
+    <row r="13" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G14" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="K16" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="K19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="K20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="B23" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="N8" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="O8" s="23" t="s">
+      <c r="D23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B25" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D26" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D27" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D28" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D29" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D30" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D31" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="D32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N34" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q9" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="G11" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="G12" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q12" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="G14" s="24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="K16" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="K17" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K18" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="K19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O19" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q19" s="9" t="s">
+    </row>
+    <row r="35" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N35" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="K20" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="O20" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q20" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O21" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="B23" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="O23" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D26" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D27" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D28" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D29" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D30" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D31" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="D32" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N32" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D33" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N33" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D34" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N34" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N35" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
     <row r="36" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N36" s="12" t="s">
-        <v>92</v>
+      <c r="N36" s="9" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2252,4 +2430,639 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="4.109375" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" customWidth="1"/>
+    <col min="10" max="10" width="45.88671875" customWidth="1"/>
+    <col min="11" max="11" width="6.21875" customWidth="1"/>
+    <col min="12" max="12" width="33.109375" customWidth="1"/>
+    <col min="13" max="13" width="23.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="H1" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="39"/>
+      <c r="L1" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="39"/>
+    </row>
+    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="H2" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="34"/>
+      <c r="L2" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="M2" s="34"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="H7" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="L7" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="H8" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="L8" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="H9" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="L9" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="H10" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="L10" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="L11" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="L12" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="18"/>
+    </row>
+    <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="H13" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="39"/>
+      <c r="L13" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" s="20"/>
+    </row>
+    <row r="14" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H14" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="34"/>
+      <c r="L14" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14" s="22"/>
+    </row>
+    <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H15" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="M15" s="24"/>
+    </row>
+    <row r="16" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="H16" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="H17" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="L18" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="M18" s="39"/>
+    </row>
+    <row r="19" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="20"/>
+      <c r="L19" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="M19" s="34"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" s="22"/>
+      <c r="L20" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="M20" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" s="24"/>
+      <c r="L21" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="H22" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" s="26"/>
+      <c r="L22" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="M22" s="18"/>
+    </row>
+    <row r="23" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="H23" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="36"/>
+      <c r="L23" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="M23" s="20"/>
+    </row>
+    <row r="24" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="H24" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="38"/>
+      <c r="L24" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="M24" s="22"/>
+    </row>
+    <row r="25" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="L25" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="M25" s="24"/>
+    </row>
+    <row r="26" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="24"/>
+    </row>
+    <row r="27" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="H27" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="39"/>
+    </row>
+    <row r="28" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="H28" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="I28" s="34"/>
+      <c r="L28" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="M28" s="39"/>
+    </row>
+    <row r="29" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="H29" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="I29" s="26"/>
+      <c r="L29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="M29" s="34"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L30" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="M30" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L31" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="M31" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="42"/>
+      <c r="L32" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="M32" s="30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="34"/>
+      <c r="L33" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="M33" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B34" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="L34" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="M34" s="18"/>
+    </row>
+    <row r="35" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="L35" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="M35" s="20"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B36" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="L36" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="M36" s="22"/>
+    </row>
+    <row r="37" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="20"/>
+      <c r="L37" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="M37" s="24"/>
+    </row>
+    <row r="38" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="22"/>
+      <c r="L38" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="M38" s="26"/>
+    </row>
+    <row r="39" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="L39" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="M39" s="36"/>
+    </row>
+    <row r="40" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="26"/>
+      <c r="L40" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="M40" s="38"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="67">
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B11:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/2. Documentatie/Baza de date.xlsx
+++ b/2. Documentatie/Baza de date.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Schema BD" sheetId="6" r:id="rId1"/>
     <sheet name="Schema POO" sheetId="7" r:id="rId2"/>
+    <sheet name="Schema POO (2)" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="124">
   <si>
     <t>Adresa</t>
   </si>
@@ -704,12 +705,30 @@
       <t xml:space="preserve"> Adresa</t>
     </r>
   </si>
+  <si>
+    <t>regiuneRecenzata</t>
+  </si>
+  <si>
+    <t>judetRecenzat</t>
+  </si>
+  <si>
+    <t>localirtateRecenzata</t>
+  </si>
+  <si>
+    <t>List&lt;String&gt;</t>
+  </si>
+  <si>
+    <t>listaRecenzati</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -827,6 +846,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1191,7 +1218,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1216,33 +1243,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1267,11 +1267,51 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1279,14 +1319,17 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1295,14 +1338,11 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2188,10 +2228,10 @@
       <c r="N8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="16" t="s">
+      <c r="O8" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="16"/>
+      <c r="P8" s="27"/>
       <c r="Q8" s="1" t="s">
         <v>45</v>
       </c>
@@ -2436,8 +2476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2457,543 +2497,594 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="H1" s="39" t="s">
+      <c r="C1" s="48"/>
+      <c r="H1" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="L1" s="39" t="s">
+      <c r="I1" s="42"/>
+      <c r="L1" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="39"/>
+      <c r="M1" s="42"/>
     </row>
     <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="H2" s="33" t="s">
+      <c r="C2" s="44"/>
+      <c r="H2" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="L2" s="43" t="s">
+      <c r="I2" s="44"/>
+      <c r="L2" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="M2" s="34"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="M3" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="L4" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="M4" s="21" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="L5" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="M5" s="21" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="L6" s="29" t="s">
+      <c r="L6" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="30" t="s">
+      <c r="M6" s="21" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="H7" s="17" t="s">
+      <c r="C7" s="33"/>
+      <c r="H7" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="L7" s="29" t="s">
+      <c r="I7" s="33"/>
+      <c r="L7" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="44" t="s">
+      <c r="M7" s="25" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="H8" s="19" t="s">
+      <c r="C8" s="31"/>
+      <c r="H8" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="L8" s="29" t="s">
+      <c r="I8" s="31"/>
+      <c r="L8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="30" t="s">
+      <c r="M8" s="21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="H9" s="21" t="s">
+      <c r="C9" s="35"/>
+      <c r="H9" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="L9" s="29" t="s">
+      <c r="I9" s="35"/>
+      <c r="L9" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="30" t="s">
+      <c r="M9" s="21" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="H10" s="23" t="s">
+      <c r="C10" s="37"/>
+      <c r="H10" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="L10" s="29" t="s">
+      <c r="I10" s="37"/>
+      <c r="L10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="30" t="s">
+      <c r="M10" s="21" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="L11" s="31" t="s">
+      <c r="C11" s="39"/>
+      <c r="L11" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="45" t="s">
+      <c r="M11" s="26" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="L12" s="17" t="s">
+      <c r="C12" s="41"/>
+      <c r="L12" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="M12" s="18"/>
+      <c r="M12" s="33"/>
     </row>
     <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="H13" s="39" t="s">
+      <c r="C13" s="29"/>
+      <c r="H13" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="I13" s="39"/>
-      <c r="L13" s="19" t="s">
+      <c r="I13" s="42"/>
+      <c r="L13" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="M13" s="20"/>
+      <c r="M13" s="31"/>
     </row>
     <row r="14" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="34"/>
-      <c r="L14" s="21" t="s">
+      <c r="I14" s="44"/>
+      <c r="L14" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="M14" s="22"/>
+      <c r="M14" s="35"/>
     </row>
     <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="28" t="s">
+      <c r="I15" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="L15" s="23" t="s">
+      <c r="L15" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="M15" s="24"/>
+      <c r="M15" s="37"/>
     </row>
     <row r="16" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="H16" s="29" t="s">
+      <c r="C16" s="48"/>
+      <c r="H16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="21" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="H17" s="29" t="s">
+      <c r="C17" s="44"/>
+      <c r="H17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="L18" s="39" t="s">
+      <c r="I18" s="33"/>
+      <c r="L18" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="M18" s="39"/>
+      <c r="M18" s="42"/>
     </row>
     <row r="19" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="20"/>
-      <c r="L19" s="33" t="s">
+      <c r="I19" s="31"/>
+      <c r="L19" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="M19" s="34"/>
+      <c r="M19" s="44"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="I20" s="22"/>
-      <c r="L20" s="29" t="s">
+      <c r="I20" s="35"/>
+      <c r="L20" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="M20" s="30" t="s">
+      <c r="M20" s="21" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="I21" s="24"/>
-      <c r="L21" s="29" t="s">
+      <c r="I21" s="37"/>
+      <c r="L21" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="M21" s="30" t="s">
+      <c r="M21" s="21" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="H22" s="25" t="s">
+      <c r="C22" s="33"/>
+      <c r="H22" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="I22" s="26"/>
-      <c r="L22" s="17" t="s">
+      <c r="I22" s="39"/>
+      <c r="L22" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="M22" s="18"/>
+      <c r="M22" s="33"/>
     </row>
     <row r="23" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="H23" s="35" t="s">
+      <c r="C23" s="31"/>
+      <c r="H23" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="I23" s="36"/>
-      <c r="L23" s="19" t="s">
+      <c r="I23" s="41"/>
+      <c r="L23" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="M23" s="20"/>
+      <c r="M23" s="31"/>
     </row>
     <row r="24" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="H24" s="37" t="s">
+      <c r="C24" s="31"/>
+      <c r="H24" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="I24" s="38"/>
-      <c r="L24" s="21" t="s">
+      <c r="I24" s="29"/>
+      <c r="L24" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="M24" s="22"/>
+      <c r="M24" s="35"/>
     </row>
     <row r="25" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="L25" s="23" t="s">
+      <c r="C25" s="35"/>
+      <c r="L25" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="M25" s="24"/>
+      <c r="M25" s="37"/>
     </row>
     <row r="26" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="24"/>
+      <c r="C26" s="37"/>
     </row>
     <row r="27" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="H27" s="39" t="s">
+      <c r="C27" s="39"/>
+      <c r="H27" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="I27" s="39"/>
+      <c r="I27" s="42"/>
     </row>
     <row r="28" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="H28" s="33" t="s">
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="H28" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="I28" s="34"/>
-      <c r="L28" s="39" t="s">
+      <c r="I28" s="44"/>
+      <c r="L28" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="M28" s="39"/>
+      <c r="M28" s="42"/>
     </row>
     <row r="29" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="H29" s="25" t="s">
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="H29" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="I29" s="26"/>
-      <c r="L29" s="33" t="s">
+      <c r="I29" s="39"/>
+      <c r="L29" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="M29" s="34"/>
+      <c r="M29" s="44"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="L30" s="27" t="s">
+      <c r="L30" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="M30" s="28" t="s">
+      <c r="M30" s="19" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L31" s="29" t="s">
+      <c r="L31" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="M31" s="30" t="s">
+      <c r="M31" s="21" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="42"/>
-      <c r="L32" s="29" t="s">
+      <c r="C32" s="48"/>
+      <c r="L32" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="M32" s="30" t="s">
+      <c r="M32" s="21" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="33" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="34"/>
-      <c r="L33" s="31" t="s">
+      <c r="C33" s="44"/>
+      <c r="L33" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="M33" s="32" t="s">
+      <c r="M33" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="L34" s="17" t="s">
+      <c r="L34" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="M34" s="18"/>
+      <c r="M34" s="33"/>
     </row>
     <row r="35" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="L35" s="19" t="s">
+      <c r="L35" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="M35" s="20"/>
+      <c r="M35" s="31"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="L36" s="21" t="s">
+      <c r="C36" s="33"/>
+      <c r="L36" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="M36" s="22"/>
+      <c r="M36" s="35"/>
     </row>
     <row r="37" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="L37" s="23" t="s">
+      <c r="C37" s="31"/>
+      <c r="L37" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="M37" s="24"/>
+      <c r="M37" s="37"/>
     </row>
     <row r="38" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="L38" s="25" t="s">
+      <c r="C38" s="35"/>
+      <c r="L38" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="M38" s="26"/>
+      <c r="M38" s="39"/>
     </row>
     <row r="39" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="L39" s="35" t="s">
+      <c r="C39" s="37"/>
+      <c r="L39" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="M39" s="36"/>
+      <c r="M39" s="41"/>
     </row>
     <row r="40" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="26"/>
-      <c r="L40" s="37" t="s">
+      <c r="C40" s="39"/>
+      <c r="L40" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="M40" s="38"/>
+      <c r="M40" s="29"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="B23:C23"/>
@@ -3010,57 +3101,694 @@
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="L23:M23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29:M29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6" style="24" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" style="24" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" style="24" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="4.109375" style="24" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" style="24" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" style="24" customWidth="1"/>
+    <col min="10" max="10" width="45.88671875" style="24" customWidth="1"/>
+    <col min="11" max="11" width="6.21875" style="24" customWidth="1"/>
+    <col min="12" max="12" width="33.109375" style="24" customWidth="1"/>
+    <col min="13" max="13" width="23.5546875" style="24" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="H1" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="42"/>
+      <c r="L1" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="42"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="H2" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="L2" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="M2" s="44"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="H7" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="33"/>
+      <c r="L7" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="H8" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="31"/>
+      <c r="L8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="H9" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="35"/>
+      <c r="L9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="H10" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="37"/>
+      <c r="L10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="L11" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="L12" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="33"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="H13" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="42"/>
+      <c r="L13" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" s="31"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H14" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="44"/>
+      <c r="L14" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14" s="35"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H15" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="M15" s="37"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="48"/>
+      <c r="H16" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="H17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" s="33"/>
+      <c r="L18" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="M18" s="42"/>
+    </row>
+    <row r="19" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="31"/>
+      <c r="L19" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="M19" s="44"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" s="35"/>
+      <c r="L20" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" s="37"/>
+      <c r="L21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" s="21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="H22" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" s="39"/>
+      <c r="L22" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="M22" s="33"/>
+    </row>
+    <row r="23" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="H23" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="41"/>
+      <c r="L23" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M23" s="31"/>
+    </row>
+    <row r="24" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="H24" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="29"/>
+      <c r="L24" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="M24" s="35"/>
+    </row>
+    <row r="25" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="L25" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="M25" s="37"/>
+    </row>
+    <row r="26" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="37"/>
+    </row>
+    <row r="27" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="39"/>
+      <c r="H27" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="42"/>
+    </row>
+    <row r="28" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="H28" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="I28" s="44"/>
+      <c r="L28" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="M28" s="42"/>
+    </row>
+    <row r="29" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="H29" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="I29" s="39"/>
+      <c r="L29" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="M29" s="44"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L30" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="M30" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L31" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="M31" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="48"/>
+      <c r="L32" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="M32" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="44"/>
+      <c r="L33" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="M33" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="L34" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="M34" s="33"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="L35" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M35" s="31"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="L36" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="M36" s="35"/>
+    </row>
+    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="L37" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="M37" s="37"/>
+    </row>
+    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="33"/>
+      <c r="L38" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="M38" s="39"/>
+    </row>
+    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="31"/>
+      <c r="L39" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="M39" s="41"/>
+    </row>
+    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="35"/>
+      <c r="L40" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="M40" s="29"/>
+    </row>
+    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="37"/>
+    </row>
+    <row r="42" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="64">
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="H24:I24"/>
     <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="H14:I14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B1:C1"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
